--- a/Team-Data/2007-08/1-7-2007-08.xlsx
+++ b/Team-Data/2007-08/1-7-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -783,10 +850,10 @@
         <v>4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
         <v>24</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -989,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1120,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1138,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
@@ -1171,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1308,7 +1375,7 @@
         <v>22</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1499,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
@@ -1666,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1711,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="AW7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -1758,85 +1825,85 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.618</v>
+        <v>0.636</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>85.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L8" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M8" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="S8" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T8" t="n">
-        <v>45.2</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="W8" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1845,10 +1912,10 @@
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1863,31 +1930,31 @@
         <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
@@ -1899,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>10.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>5</v>
@@ -2048,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -2069,7 +2136,7 @@
         <v>25</v>
       </c>
       <c r="AU9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.571</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="J10" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="M10" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.741</v>
+        <v>0.737</v>
       </c>
       <c r="R10" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W10" t="n">
         <v>8.699999999999999</v>
@@ -2185,22 +2252,22 @@
         <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.7</v>
+        <v>108.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2236,16 +2303,16 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2263,7 +2330,7 @@
         <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2445,13 +2512,13 @@
         <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>8</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2655,7 @@
         <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2785,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
@@ -2940,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2961,7 +3028,7 @@
         <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2976,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>23</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3149,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>27</v>
@@ -3173,7 +3240,7 @@
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3507,7 +3574,7 @@
         <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3698,7 +3765,7 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>23</v>
@@ -3713,7 +3780,7 @@
         <v>20</v>
       </c>
       <c r="AW18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>4.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4047,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN20" t="n">
         <v>10</v>
@@ -4062,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4214,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4268,7 +4335,7 @@
         <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -4390,10 +4457,10 @@
         <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>3</v>
@@ -4402,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>7</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -4670,124 +4737,124 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>0.706</v>
+        <v>0.697</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="J24" t="n">
-        <v>85.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.381</v>
+        <v>0.369</v>
       </c>
       <c r="O24" t="n">
         <v>17.3</v>
       </c>
       <c r="P24" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="R24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
         <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="V24" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
         <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.1</v>
+        <v>109.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM24" t="n">
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>7</v>
@@ -4975,7 +5042,7 @@
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4984,7 +5051,7 @@
         <v>13</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>23</v>
@@ -5124,7 +5191,7 @@
         <v>23</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
@@ -5133,7 +5200,7 @@
         <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>20</v>
@@ -5154,7 +5221,7 @@
         <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
         <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>0.697</v>
+        <v>0.719</v>
       </c>
       <c r="H27" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>79.7</v>
+        <v>79.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.46</v>
@@ -5243,22 +5310,22 @@
         <v>8.1</v>
       </c>
       <c r="M27" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O27" t="n">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="P27" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.758</v>
+        <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S27" t="n">
         <v>31.5</v>
@@ -5270,49 +5337,49 @@
         <v>22.3</v>
       </c>
       <c r="V27" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>14</v>
       </c>
       <c r="AJ27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
         <v>10</v>
@@ -5321,49 +5388,49 @@
         <v>5</v>
       </c>
       <c r="AM27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN27" t="n">
         <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
       </c>
       <c r="AW27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,13 +5555,13 @@
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
         <v>24</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>1.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5670,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
         <v>11</v>
@@ -5721,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>8</v>
@@ -6067,7 +6134,7 @@
         <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-7-2007-08</t>
+          <t>2008-01-07</t>
         </is>
       </c>
     </row>
